--- a/results_iteration_data/CP1000_RD_20C/iteration_97/prediction_1/TDS_measurement.xlsx
+++ b/results_iteration_data/CP1000_RD_20C/iteration_97/prediction_1/TDS_measurement.xlsx
@@ -498,22 +498,22 @@
         <v>120</v>
       </c>
       <c r="B3" t="n">
-        <v>4.92292595</v>
+        <v>4.1997776</v>
       </c>
       <c r="C3" t="n">
-        <v>4.09915209</v>
+        <v>3.47973561</v>
       </c>
       <c r="D3" t="n">
-        <v>0.824298218</v>
+        <v>0.720930542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.627967407</v>
+        <v>0.5358368529999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.522918335</v>
+        <v>0.443853577</v>
       </c>
       <c r="G3" t="n">
-        <v>0.105170708</v>
+        <v>0.09197724910000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>600</v>
       </c>
       <c r="B4" t="n">
-        <v>8.307409290000001</v>
+        <v>6.64403534</v>
       </c>
       <c r="C4" t="n">
-        <v>7.00085545</v>
+        <v>5.57329226</v>
       </c>
       <c r="D4" t="n">
-        <v>1.30850947</v>
+        <v>1.07063711</v>
       </c>
       <c r="E4" t="n">
-        <v>1.05983579</v>
+        <v>0.847667847</v>
       </c>
       <c r="F4" t="n">
-        <v>0.892850098</v>
+        <v>0.711174988</v>
       </c>
       <c r="G4" t="n">
-        <v>0.166911972</v>
+        <v>0.136581512</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>1800</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4072104</v>
+        <v>9.27796459</v>
       </c>
       <c r="C5" t="n">
-        <v>8.79961205</v>
+        <v>7.83202839</v>
       </c>
       <c r="D5" t="n">
-        <v>1.60831916</v>
+        <v>1.4472543</v>
       </c>
       <c r="E5" t="n">
-        <v>1.32757568</v>
+        <v>1.18366623</v>
       </c>
       <c r="F5" t="n">
-        <v>1.12258291</v>
+        <v>0.999197571</v>
       </c>
       <c r="G5" t="n">
-        <v>0.205153046</v>
+        <v>0.184598434</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>7200</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7081585</v>
+        <v>10.5028973</v>
       </c>
       <c r="C6" t="n">
-        <v>9.05920601</v>
+        <v>8.88079166</v>
       </c>
       <c r="D6" t="n">
-        <v>1.65142977</v>
+        <v>1.6221627</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3660816</v>
+        <v>1.33992505</v>
       </c>
       <c r="F6" t="n">
-        <v>1.15503216</v>
+        <v>1.13310623</v>
       </c>
       <c r="G6" t="n">
-        <v>0.210561432</v>
+        <v>0.206891281</v>
       </c>
     </row>
   </sheetData>
